--- a/arg_urls.xlsx
+++ b/arg_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>x</t>
   </si>
@@ -176,163 +176,265 @@
     <t>53</t>
   </si>
   <si>
-    <t>https://fbref.com/en/matches/4fefca20/Sarmiento-Instituto-May-10-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/ffacd80b/Huracan-Defensa-y-Justicia-May-11-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/c22ece76/Godoy-Cruz-Barracas-Central-May-11-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/30e8b80d/Independiente-Talleres-May-11-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/9c49643c/River-Plate-Central-Cordoba-SdE-May-11-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/500343e2/Argentinos-Juniors-Rosario-Central-May-10-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/60f2f48f/Newells-Old-Boys-Platense-May-10-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/b005f9fa/Deportivo-Riestra-San-Lorenzo-May-12-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/f1dfe976/Tigre-Estudiantes-LP-May-12-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/73d783e1/Lanus-Independiente-Rivadavia-May-12-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/c5ce5d57/Belgrano-Racing-Club-May-12-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/19db2ec0/Atletico-Tucuman-Boca-Juniors-May-12-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/caee9cd6/Gimnasia-y-Esgrima-LP-Velez-Sarsfield-May-13-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/cbb10b5d/Union-Banfield-May-13-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/da8eb168/Independiente-Rivadavia-Godoy-Cruz-May-18-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/a624b4fa/River-Plate-Belgrano-May-18-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/8716a327/Defensa-y-Justicia-Gimnasia-y-Esgrima-LP-May-18-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/aef85748/Instituto-Union-May-18-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/9d4d2c1a/Barracas-Central-Sarmiento-May-19-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/ace9365f/Platense-Independiente-May-19-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/8000169a/Talleres-Atletico-Tucuman-May-19-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/8ab20306/Banfield-Huracan-May-19-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/19095fe5/Central-Cordoba-SdE-Boca-Juniors-May-19-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/337d68ff/Estudiantes-LP-Deportivo-Riestra-May-20-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/460de77c/San-Lorenzo-Lanus-May-20-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/a33d5322/Velez-Sarsfield-Newells-Old-Boys-May-21-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/39067c1a/Rosario-Central-Tigre-May-20-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/c6fa70e6/Racing-Club-Argentinos-Juniors-May-20-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/5d2d848c/Deportivo-Riestra-Rosario-Central-May-24-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/243d3d5b/Tigre-Racing-Club-May-24-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/f27a1399/Argentinos-Juniors-River-Plate-May-25-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/b09f7ad3/Godoy-Cruz-San-Lorenzo-May-25-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/cb5ad4c9/Newells-Old-Boys-Defensa-y-Justicia-May-25-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/54fc7d8f/Boca-Juniors-Talleres-May-25-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/671b79b8/Belgrano-Central-Cordoba-SdE-May-24-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/f4fe03b6/Lanus-Estudiantes-LP-May-24-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/9334b993/Huracan-Instituto-May-26-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/4da0eb59/Sarmiento-Independiente-Rivadavia-May-26-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/657285ec/Gimnasia-y-Esgrima-LP-Banfield-May-26-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/c5ba8fca/Independiente-Velez-Sarsfield-May-26-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/b12bf570/Union-Barracas-Central-May-27-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/fc8b3fef/Atletico-Tucuman-Platense-May-27-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/801f6f6c/Racing-Club-Deportivo-Riestra-June-1-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/7b021373/Belgrano-Argentinos-Juniors-June-1-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/c1f8681d/Velez-Sarsfield-Atletico-Tucuman-June-1-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/78ae091a/Platense-Boca-Juniors-June-2-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/bc413811/Rosario-Central-Lanus-June-2-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/f904d738/Central-Cordoba-SdE-Talleres-June-2-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/472ee950/Instituto-Gimnasia-y-Esgrima-LP-June-2-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/7585cbde/River-Plate-Tigre-June-2-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/8522ec85/San-Lorenzo-Sarmiento-June-3-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/328a5274/Defensa-y-Justicia-Independiente-June-3-2024-Primera-Division</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/bf949c92/Estudiantes-LP-Godoy-Cruz-June-3-2024-Primera-Division</t>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4fefca20/Sarmiento-Instituto-May-10-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ffacd80b/Huracan-Defensa-y-Justicia-May-11-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c22ece76/Godoy-Cruz-Barracas-Central-May-11-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/30e8b80d/Independiente-Talleres-May-11-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9c49643c/River-Plate-Central-Cordoba-SdE-May-11-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/500343e2/Argentinos-Juniors-Rosario-Central-May-10-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/60f2f48f/Newells-Old-Boys-Platense-May-10-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b005f9fa/Deportivo-Riestra-San-Lorenzo-May-12-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f1dfe976/Tigre-Estudiantes-LP-May-12-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/73d783e1/Lanus-Independiente-Rivadavia-May-12-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c5ce5d57/Belgrano-Racing-Club-May-12-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/19db2ec0/Atletico-Tucuman-Boca-Juniors-May-12-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/caee9cd6/Gimnasia-y-Esgrima-LP-Velez-Sarsfield-May-13-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cbb10b5d/Union-Banfield-May-13-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/da8eb168/Independiente-Rivadavia-Godoy-Cruz-May-18-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a624b4fa/River-Plate-Belgrano-May-18-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8716a327/Defensa-y-Justicia-Gimnasia-y-Esgrima-LP-May-18-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/aef85748/Instituto-Union-May-18-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9d4d2c1a/Barracas-Central-Sarmiento-May-19-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ace9365f/Platense-Independiente-May-19-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8000169a/Talleres-Atletico-Tucuman-May-19-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8ab20306/Banfield-Huracan-May-19-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/19095fe5/Central-Cordoba-SdE-Boca-Juniors-May-19-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/337d68ff/Estudiantes-LP-Deportivo-Riestra-May-20-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/460de77c/San-Lorenzo-Lanus-May-20-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a33d5322/Velez-Sarsfield-Newells-Old-Boys-May-21-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/39067c1a/Rosario-Central-Tigre-May-20-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c6fa70e6/Racing-Club-Argentinos-Juniors-May-20-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5d2d848c/Deportivo-Riestra-Rosario-Central-May-24-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/243d3d5b/Tigre-Racing-Club-May-24-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f27a1399/Argentinos-Juniors-River-Plate-May-25-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b09f7ad3/Godoy-Cruz-San-Lorenzo-May-25-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cb5ad4c9/Newells-Old-Boys-Defensa-y-Justicia-May-25-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/54fc7d8f/Boca-Juniors-Talleres-May-25-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/671b79b8/Belgrano-Central-Cordoba-SdE-May-24-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f4fe03b6/Lanus-Estudiantes-LP-May-24-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9334b993/Huracan-Instituto-May-26-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4da0eb59/Sarmiento-Independiente-Rivadavia-May-26-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/657285ec/Gimnasia-y-Esgrima-LP-Banfield-May-26-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c5ba8fca/Independiente-Velez-Sarsfield-May-26-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b12bf570/Union-Barracas-Central-May-27-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fc8b3fef/Atletico-Tucuman-Platense-May-27-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/801f6f6c/Racing-Club-Deportivo-Riestra-June-1-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7b021373/Belgrano-Argentinos-Juniors-June-1-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c1f8681d/Velez-Sarsfield-Atletico-Tucuman-June-1-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/78ae091a/Platense-Boca-Juniors-June-2-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bc413811/Rosario-Central-Lanus-June-2-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f904d738/Central-Cordoba-SdE-Talleres-June-2-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/472ee950/Instituto-Gimnasia-y-Esgrima-LP-June-2-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7585cbde/River-Plate-Tigre-June-2-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8522ec85/San-Lorenzo-Sarmiento-June-3-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e2855404/Barracas-Central-Huracan-June-4-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/50c2cfe4/Banfield-Newells-Old-Boys-June-4-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/de3d6cea/Independiente-Rivadavia-Union-June-4-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/328a5274/Defensa-y-Justicia-Independiente-June-3-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bf949c92/Estudiantes-LP-Godoy-Cruz-June-3-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/086ba2d9/Godoy-Cruz-Rosario-Central-June-12-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/66c38927/Argentinos-Juniors-Central-Cordoba-SdE-June-12-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6020b448/Deportivo-Riestra-River-Plate-June-13-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6ea5e3ab/Tigre-Belgrano-June-13-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f33a3e2d/Sarmiento-Estudiantes-LP-June-13-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4aec9ad3/Independiente-Banfield-June-12-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b540015f/Gimnasia-y-Esgrima-LP-Barracas-Central-June-12-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6f277182/Talleres-Platense-June-14-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8ca805f4/Boca-Juniors-Velez-Sarsfield-June-14-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/01141056/Lanus-Racing-Club-June-13-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8e5aa607/Newells-Old-Boys-Instituto-June-13-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/54a63184/Union-San-Lorenzo-June-15-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5ee09982/Huracan-Independiente-Rivadavia-June-15-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/304689b4/Atletico-Tucuman-Defensa-y-Justicia-June-15-2024-Liga-Profesional-Argentina</t>
   </si>
 </sst>
 </file>
@@ -394,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -402,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -418,7 +520,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -426,7 +528,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -434,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -442,7 +544,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +552,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -458,7 +560,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
@@ -466,7 +568,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -474,7 +576,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
@@ -482,7 +584,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -490,7 +592,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
@@ -498,7 +600,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
@@ -506,7 +608,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -514,7 +616,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
@@ -522,7 +624,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
@@ -530,7 +632,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
@@ -538,7 +640,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -546,7 +648,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -554,7 +656,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
@@ -562,7 +664,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
@@ -570,7 +672,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
@@ -578,7 +680,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
@@ -586,7 +688,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27">
@@ -594,7 +696,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28">
@@ -602,7 +704,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29">
@@ -610,7 +712,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
@@ -618,7 +720,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31">
@@ -626,7 +728,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
@@ -634,7 +736,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33">
@@ -642,7 +744,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
@@ -650,7 +752,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35">
@@ -658,7 +760,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
@@ -666,7 +768,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37">
@@ -674,7 +776,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38">
@@ -682,7 +784,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39">
@@ -690,7 +792,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40">
@@ -698,7 +800,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41">
@@ -706,7 +808,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42">
@@ -714,7 +816,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43">
@@ -722,7 +824,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44">
@@ -730,7 +832,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45">
@@ -738,7 +840,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46">
@@ -746,7 +848,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47">
@@ -754,7 +856,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48">
@@ -762,7 +864,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49">
@@ -770,7 +872,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50">
@@ -778,7 +880,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51">
@@ -786,7 +888,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52">
@@ -794,7 +896,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53">
@@ -802,7 +904,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54">
@@ -810,7 +912,143 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/arg_urls.xlsx
+++ b/arg_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
     <t>x</t>
   </si>
@@ -227,6 +227,189 @@
     <t>70</t>
   </si>
   <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/4fefca20/Sarmiento-Instituto-May-10-2024-Liga-Profesional-Argentina</t>
   </si>
   <si>
@@ -435,6 +618,189 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/304689b4/Atletico-Tucuman-Defensa-y-Justicia-June-15-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1135da85/Argentinos-Juniors-Tigre-July-18-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1416f4b5/Independiente-Rivadavia-Gimnasia-y-Esgrima-LP-July-18-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c624132e/Barracas-Central-Newells-Old-Boys-July-19-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c000a3a5/Belgrano-Deportivo-Riestra-July-19-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/eabbdbd0/Instituto-Independiente-July-18-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/72324037/San-Lorenzo-Huracan-July-20-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d8795059/Racing-Club-Godoy-Cruz-July-20-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e371173d/Banfield-Atletico-Tucuman-July-20-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/928bc2a0/Rosario-Central-Sarmiento-July-19-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/aca91270/River-Plate-Lanus-July-21-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/310869a0/Central-Cordoba-SdE-Platense-July-21-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f8589756/Estudiantes-LP-Union-July-21-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/40ac2af6/Velez-Sarsfield-Talleres-July-21-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4a25df0c/Defensa-y-Justicia-Boca-Juniors-July-21-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d07a7bb8/Deportivo-Riestra-Argentinos-Juniors-July-23-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/14cb6425/Newells-Old-Boys-Independiente-Rivadavia-July-23-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/34dd72a6/Gimnasia-y-Esgrima-LP-San-Lorenzo-July-23-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0bf1640f/Talleres-Defensa-y-Justicia-July-24-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/883ccf07/Sarmiento-Racing-Club-July-24-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2be95118/Godoy-Cruz-River-Plate-July-24-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dcdb5607/Huracan-Estudiantes-LP-July-24-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/20a8266f/Independiente-Barracas-Central-July-23-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8591b350/Platense-Velez-Sarsfield-July-25-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/df28bded/Lanus-Belgrano-July-25-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/77ddafb0/Tigre-Central-Cordoba-SdE-July-25-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/83cab639/Atletico-Tucuman-Instituto-July-25-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9a2c4c24/Independiente-Rivadavia-Independiente-July-27-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/56d268d7/San-Lorenzo-Newells-Old-Boys-July-27-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/42fd7007/Rosario-Central-Huracan-July-27-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4032e394/Estudiantes-LP-Gimnasia-y-Esgrima-LP-July-28-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7ce1fceb/Banfield-Talleres-July-28-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e087d92a/Racing-Club-Union-July-28-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/75c3b6be/River-Plate-Sarmiento-July-28-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f9ae79c5/Instituto-Boca-Juniors-July-28-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9eae6507/Barracas-Central-Atletico-Tucuman-July-29-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/696a3f01/Defensa-y-Justicia-Platense-July-29-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a3150d16/Tigre-Deportivo-Riestra-July-29-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dd894773/Central-Cordoba-SdE-Velez-Sarsfield-July-29-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9cffaca2/Belgrano-Godoy-Cruz-July-29-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c48da8a0/Argentinos-Juniors-Lanus-July-29-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e3ca4b95/Union-Rosario-Central-July-31-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9fc7c125/Boca-Juniors-Banfield-July-31-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/22fa807d/Newells-Old-Boys-Estudiantes-LP-August-2-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c77c41d0/Velez-Sarsfield-Defensa-y-Justicia-August-3-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f1040d70/Godoy-Cruz-Argentinos-Juniors-August-3-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6a4cc56c/Talleres-Instituto-August-3-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4b350385/Independiente-San-Lorenzo-August-3-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d38a0131/Huracan-Racing-Club-August-3-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0d0c8959/Sarmiento-Belgrano-August-4-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/41afaec5/Union-River-Plate-August-4-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c7fdaf15/Boca-Juniors-Barracas-Central-August-4-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/192dc12f/Lanus-Tigre-August-4-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d617e33d/Atletico-Tucuman-Independiente-Rivadavia-August-4-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f8ff6af5/Deportivo-Riestra-Central-Cordoba-SdE-August-5-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/16e30bb3/Gimnasia-y-Esgrima-LP-Rosario-Central-August-5-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7961f40d/Platense-Banfield-August-5-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a0facee6/Argentinos-Juniors-Sarmiento-August-8-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/85521953/Deportivo-Riestra-Lanus-August-9-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/52328588/Barracas-Central-Talleres-August-9-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4a65f0ef/Belgrano-Union-August-9-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2a432d07/Racing-Club-Gimnasia-y-Esgrima-LP-August-9-2024-Liga-Profesional-Argentina</t>
   </si>
 </sst>
 </file>
@@ -496,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
@@ -504,7 +870,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +878,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5">
@@ -520,7 +886,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
@@ -528,7 +894,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7">
@@ -536,7 +902,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8">
@@ -544,7 +910,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
@@ -552,7 +918,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10">
@@ -560,7 +926,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
@@ -568,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
@@ -576,7 +942,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
@@ -584,7 +950,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
@@ -592,7 +958,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
@@ -600,7 +966,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
@@ -608,7 +974,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
@@ -616,7 +982,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18">
@@ -624,7 +990,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19">
@@ -632,7 +998,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20">
@@ -640,7 +1006,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
@@ -648,7 +1014,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22">
@@ -656,7 +1022,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23">
@@ -664,7 +1030,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +1038,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25">
@@ -680,7 +1046,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26">
@@ -688,7 +1054,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27">
@@ -696,7 +1062,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28">
@@ -704,7 +1070,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29">
@@ -712,7 +1078,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30">
@@ -720,7 +1086,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31">
@@ -728,7 +1094,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32">
@@ -736,7 +1102,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33">
@@ -744,7 +1110,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34">
@@ -752,7 +1118,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35">
@@ -760,7 +1126,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36">
@@ -768,7 +1134,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37">
@@ -776,7 +1142,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38">
@@ -784,7 +1150,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39">
@@ -792,7 +1158,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40">
@@ -800,7 +1166,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41">
@@ -808,7 +1174,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42">
@@ -816,7 +1182,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43">
@@ -824,7 +1190,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44">
@@ -832,7 +1198,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45">
@@ -840,7 +1206,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46">
@@ -848,7 +1214,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47">
@@ -856,7 +1222,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48">
@@ -864,7 +1230,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49">
@@ -872,7 +1238,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50">
@@ -880,7 +1246,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51">
@@ -888,7 +1254,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52">
@@ -896,7 +1262,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53">
@@ -904,7 +1270,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54">
@@ -912,7 +1278,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55">
@@ -920,7 +1286,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56">
@@ -928,7 +1294,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57">
@@ -936,7 +1302,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58">
@@ -944,7 +1310,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59">
@@ -952,7 +1318,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60">
@@ -960,7 +1326,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61">
@@ -968,7 +1334,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62">
@@ -976,7 +1342,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63">
@@ -984,7 +1350,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64">
@@ -992,7 +1358,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65">
@@ -1000,7 +1366,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66">
@@ -1008,7 +1374,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67">
@@ -1016,7 +1382,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68">
@@ -1024,7 +1390,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69">
@@ -1032,7 +1398,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70">
@@ -1040,7 +1406,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71">
@@ -1048,7 +1414,495 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/arg_urls.xlsx
+++ b/arg_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="607">
   <si>
     <t>x</t>
   </si>
@@ -410,6 +410,522 @@
     <t>131</t>
   </si>
   <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/4fefca20/Sarmiento-Instituto-May-10-2024-Liga-Profesional-Argentina</t>
   </si>
   <si>
@@ -503,9 +1019,6 @@
     <t>https://fbref.com/en/matches/f27a1399/Argentinos-Juniors-River-Plate-May-25-2024-Liga-Profesional-Argentina</t>
   </si>
   <si>
-    <t>https://fbref.com/en/matches/b09f7ad3/Godoy-Cruz-San-Lorenzo-May-25-2024-Liga-Profesional-Argentina</t>
-  </si>
-  <si>
     <t>https://fbref.com/en/matches/cb5ad4c9/Newells-Old-Boys-Defensa-y-Justicia-May-25-2024-Liga-Profesional-Argentina</t>
   </si>
   <si>
@@ -800,7 +1313,526 @@
     <t>https://fbref.com/en/matches/4a65f0ef/Belgrano-Union-August-9-2024-Liga-Profesional-Argentina</t>
   </si>
   <si>
+    <t>https://fbref.com/en/matches/b66f9d17/San-Lorenzo-Atletico-Tucuman-August-10-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ed128bb3/Rosario-Central-Newells-Old-Boys-August-10-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/32987d1c/Independiente-Rivadavia-Boca-Juniors-August-10-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7fca618f/River-Plate-Huracan-August-10-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/2a432d07/Racing-Club-Gimnasia-y-Esgrima-LP-August-9-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0e4e4d6d/Instituto-Platense-August-11-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4f0c1fe0/Central-Cordoba-SdE-Defensa-y-Justicia-August-11-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8f5aefe1/Banfield-Velez-Sarsfield-August-11-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ca70598f/Estudiantes-LP-Independiente-August-11-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7bfe1c42/Tigre-Godoy-Cruz-August-12-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a874c9df/Platense-Barracas-Central-August-16-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/27ef79b4/Lanus-Central-Cordoba-SdE-August-17-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0fa58c0b/Independiente-Rosario-Central-August-17-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/eddfdacc/Gimnasia-y-Esgrima-LP-River-Plate-August-17-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/56dc55c2/Talleres-Independiente-Rivadavia-August-17-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e2d12b82/Velez-Sarsfield-Instituto-August-17-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b4f71c28/Newells-Old-Boys-Racing-Club-August-16-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dc65e483/Boca-Juniors-San-Lorenzo-August-18-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6b5d4d38/Sarmiento-Tigre-August-18-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8fde89fa/Atletico-Tucuman-Estudiantes-LP-August-18-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ffa26e9e/Huracan-Belgrano-August-18-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/25085b0b/Union-Argentinos-Juniors-August-19-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bdd0f84e/Godoy-Cruz-Deportivo-Riestra-August-19-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dc1564fb/Defensa-y-Justicia-Banfield-August-19-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d29cf0cd/Independiente-Rivadavia-Platense-August-23-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3377cfdc/Deportivo-Riestra-Sarmiento-August-24-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6e77e0b8/Argentinos-Juniors-Huracan-August-24-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/46564be9/Instituto-Defensa-y-Justicia-August-24-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/97afa365/Tigre-Union-August-24-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6bc1f192/Lanus-Godoy-Cruz-August-25-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/73d4ae14/San-Lorenzo-Talleres-August-25-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bf1c71ad/Racing-Club-Independiente-August-25-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/821ca088/River-Plate-Newells-Old-Boys-August-25-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/365b38fe/Barracas-Central-Velez-Sarsfield-August-26-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f1ac5f63/Central-Cordoba-SdE-Banfield-August-26-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c73ab700/Rosario-Central-Atletico-Tucuman-August-26-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dc66e035/Belgrano-Gimnasia-y-Esgrima-LP-August-26-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d50e1780/Estudiantes-LP-Boca-Juniors-August-26-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cdf091e6/Sarmiento-Lanus-August-30-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/504dcecd/Newells-Old-Boys-Belgrano-August-31-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/eff697f6/Defensa-y-Justicia-Barracas-Central-August-31-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8663e237/Talleres-Estudiantes-LP-August-31-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d98f8afb/Velez-Sarsfield-Independiente-Rivadavia-August-31-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/aa0faa52/Union-Deportivo-Riestra-August-30-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/79b23a29/Huracan-Tigre-September-1-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cfc549f5/Platense-San-Lorenzo-September-1-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/18690d25/Independiente-River-Plate-September-1-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a880540a/Atletico-Tucuman-Racing-Club-September-1-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/20aa829c/Boca-Juniors-Rosario-Central-August-31-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6d61661f/Gimnasia-y-Esgrima-LP-Argentinos-Juniors-September-2-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/de21d18e/Godoy-Cruz-Central-Cordoba-SdE-September-2-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6283fed1/Banfield-Instituto-September-1-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ea3c5612/Deportivo-Riestra-Huracan-September-13-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/15a64ce2/Lanus-Union-September-13-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7aade4a2/Central-Cordoba-SdE-Instituto-September-13-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e6778aef/San-Lorenzo-Velez-Sarsfield-September-14-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/736eaf81/Racing-Club-Boca-Juniors-September-14-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/91f7fa25/Tigre-Gimnasia-y-Esgrima-LP-September-14-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b4e22c43/Belgrano-Independiente-September-14-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/883be56f/River-Plate-Atletico-Tucuman-September-13-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7a9049b5/Godoy-Cruz-Sarmiento-September-15-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/97087154/Estudiantes-LP-Platense-September-15-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0e35db2c/Rosario-Central-Talleres-September-15-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7ae93839/Argentinos-Juniors-Newells-Old-Boys-September-15-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6c7a367b/Barracas-Central-Banfield-September-16-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b4e79ffc/Independiente-Rivadavia-Defensa-y-Justicia-September-16-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/22c7bb1d/Gimnasia-y-Esgrima-LP-Deportivo-Riestra-September-20-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dae11681/Union-Godoy-Cruz-September-20-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a7f91f54/Superclasico-Boca-Juniors-River-Plate-September-21-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1b070bfe/Newells-Old-Boys-Tigre-September-21-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c3a59da8/Instituto-Barracas-Central-September-21-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5563b539/Independiente-Argentinos-Juniors-September-22-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/914db8ba/Huracan-Lanus-September-22-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f4fc1967/Talleres-Racing-Club-September-22-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/71fa5023/Platense-Rosario-Central-September-22-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d284e695/Atletico-Tucuman-Belgrano-September-22-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0924d9ff/Defensa-y-Justicia-San-Lorenzo-September-21-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0dfd6912/Sarmiento-Central-Cordoba-SdE-September-23-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4f669270/Banfield-Independiente-Rivadavia-September-23-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c86c1f48/Velez-Sarsfield-Estudiantes-LP-September-23-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1502c209/Deportivo-Riestra-Newells-Old-Boys-September-27-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1531fcae/San-Lorenzo-Banfield-September-28-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5eb5ad2d/Estudiantes-LP-Defensa-y-Justicia-September-28-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9554f7af/Godoy-Cruz-Huracan-September-28-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b7c78896/Belgrano-Boca-Juniors-September-28-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/92110c21/Independiente-Rivadavia-Instituto-September-27-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b85eb298/Central-Cordoba-SdE-Barracas-Central-September-29-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b9d66707/River-Plate-Talleres-September-29-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d79acfec/Sarmiento-Union-September-29-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cc32e18c/Argentinos-Juniors-Atletico-Tucuman-September-30-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e54bb2e6/Tigre-Independiente-October-1-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/19b1e04d/Rosario-Central-Velez-Sarsfield-October-1-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5faa2c18/Racing-Club-Platense-September-30-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e5f548d7/Lanus-Gimnasia-y-Esgrima-LP-September-30-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7e941357/Union-Central-Cordoba-SdE-October-4-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a42a1606/Velez-Sarsfield-Racing-Club-October-5-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b113a0e0/Newells-Old-Boys-Lanus-October-5-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b7178558/Gimnasia-y-Esgrima-LP-Godoy-Cruz-October-5-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4718493a/Instituto-San-Lorenzo-October-5-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/430562bf/Huracan-Sarmiento-October-4-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fd8a587e/Independiente-Deportivo-Riestra-October-6-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dc2896b0/Talleres-Belgrano-October-6-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/862a2984/Platense-River-Plate-October-6-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5682c90f/Barracas-Central-Independiente-Rivadavia-October-7-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dd0b4740/Banfield-Estudiantes-LP-October-7-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/495981ae/Defensa-y-Justicia-Rosario-Central-October-7-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f8172af5/Boca-Juniors-Argentinos-Juniors-October-6-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4aa498e7/Atletico-Tucuman-Tigre-October-7-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b09f7ad3/Godoy-Cruz-San-Lorenzo-October-12-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/32d4c6ae/Deportivo-Riestra-Atletico-Tucuman-October-18-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1fe332f3/Sarmiento-Gimnasia-y-Esgrima-LP-October-18-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/70dd6c35/Central-Cordoba-SdE-Independiente-Rivadavia-October-18-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9a278bf0/Lanus-Independiente-October-18-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0c1202e7/Belgrano-Platense-October-19-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e88609b3/Racing-Club-Defensa-y-Justicia-October-19-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8f6ce0d7/Tigre-Boca-Juniors-October-19-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fa0209d6/River-Plate-Velez-Sarsfield-October-18-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6373481e/Argentinos-Juniors-Talleres-October-20-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/31214cd9/Rosario-Central-Banfield-October-20-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/397460e4/Estudiantes-LP-Instituto-October-20-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d31edbf6/San-Lorenzo-Barracas-Central-October-20-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f250220a/Godoy-Cruz-Newells-Old-Boys-October-20-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9e5b66a8/Union-Huracan-October-19-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/593c491b/Barracas-Central-Estudiantes-LP-October-25-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/654d2b62/Newells-Old-Boys-Sarmiento-October-26-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8c28f8c8/Instituto-Rosario-Central-October-26-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/00bfef50/Independiente-Godoy-Cruz-October-26-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ec273e5f/Defensa-y-Justicia-River-Plate-October-25-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7abd7af9/Platense-Argentinos-Juniors-October-27-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/61b4ea0d/Banfield-Racing-Club-October-27-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/39fb7552/Boca-Juniors-Deportivo-Riestra-October-27-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3fd728c5/Velez-Sarsfield-Belgrano-October-26-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/aaa8e0b9/Independiente-Rivadavia-San-Lorenzo-October-26-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/76e7b902/Gimnasia-y-Esgrima-LP-Union-October-28-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/aa843def/Talleres-Tigre-October-27-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c700fbf1/Atletico-Tucuman-Lanus-October-27-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/77ac090a/Huracan-Central-Cordoba-SdE-October-28-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0e9415b9/Sarmiento-Independiente-October-31-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/181c82ff/Estudiantes-LP-Independiente-Rivadavia-October-31-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/89cff9db/Central-Cordoba-SdE-San-Lorenzo-November-1-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f79c470e/Huracan-Gimnasia-y-Esgrima-LP-November-1-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7f966f29/Rosario-Central-Barracas-Central-October-31-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/caac37f7/Godoy-Cruz-Atletico-Tucuman-October-31-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/67f24360/Deportivo-Riestra-Talleres-November-2-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cfe20593/River-Plate-Banfield-November-2-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8c865cc2/Belgrano-Defensa-y-Justicia-November-2-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/506fea5f/Union-Newells-Old-Boys-November-1-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/56ecbf60/Argentinos-Juniors-Velez-Sarsfield-November-1-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6d78357c/Tigre-Platense-November-3-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/442d6fc6/Racing-Club-Instituto-November-3-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/83b980fe/Lanus-Boca-Juniors-November-3-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/25e56b66/Atletico-Tucuman-Sarmiento-November-4-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/71d88c3f/San-Lorenzo-Estudiantes-LP-November-5-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f56c7219/Gimnasia-y-Esgrima-LP-Central-Cordoba-SdE-November-5-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b842069d/Independiente-Rivadavia-Rosario-Central-November-4-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d704e567/Barracas-Central-Racing-Club-November-6-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/60530701/Banfield-Belgrano-November-6-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7f953c49/Boca-Juniors-Godoy-Cruz-November-6-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0c4549c2/Newells-Old-Boys-Huracan-November-5-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a2fb7757/Independiente-Union-November-5-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/84f547b9/Talleres-Lanus-November-7-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/177fd575/Defensa-y-Justicia-Argentinos-Juniors-November-7-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/40adc76a/Instituto-River-Plate-November-6-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/596488ca/Platense-Deportivo-Riestra-November-7-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/95ac462b/Velez-Sarsfield-Tigre-November-7-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ca492963/Union-Atletico-Tucuman-November-9-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a48a15e1/Gimnasia-y-Esgrima-LP-Newells-Old-Boys-November-9-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/60ba17c0/Rosario-Central-San-Lorenzo-November-9-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b578ee63/Central-Cordoba-SdE-Estudiantes-LP-November-10-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/626d4126/River-Plate-Barracas-Central-November-10-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/14ef9491/Godoy-Cruz-Talleres-November-10-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1b644852/Racing-Club-Independiente-Rivadavia-November-10-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7873027a/Huracan-Independiente-November-9-2024-Liga-Profesional-Argentina</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/aff72102/Sarmiento-Boca-Juniors-November-10-2024-Liga-Profesional-Argentina</t>
   </si>
 </sst>
 </file>
@@ -862,7 +1894,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3">
@@ -870,7 +1902,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4">
@@ -878,7 +1910,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5">
@@ -886,7 +1918,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6">
@@ -894,7 +1926,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7">
@@ -902,7 +1934,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8">
@@ -910,7 +1942,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9">
@@ -918,7 +1950,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10">
@@ -926,7 +1958,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11">
@@ -934,7 +1966,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12">
@@ -942,7 +1974,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13">
@@ -950,7 +1982,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14">
@@ -958,7 +1990,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15">
@@ -966,7 +1998,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16">
@@ -974,7 +2006,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17">
@@ -982,7 +2014,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18">
@@ -990,7 +2022,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19">
@@ -998,7 +2030,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20">
@@ -1006,7 +2038,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21">
@@ -1014,7 +2046,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22">
@@ -1022,7 +2054,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23">
@@ -1030,7 +2062,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24">
@@ -1038,7 +2070,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25">
@@ -1046,7 +2078,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26">
@@ -1054,7 +2086,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27">
@@ -1062,7 +2094,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28">
@@ -1070,7 +2102,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29">
@@ -1078,7 +2110,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30">
@@ -1086,7 +2118,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31">
@@ -1094,7 +2126,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32">
@@ -1102,7 +2134,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>162</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33">
@@ -1110,7 +2142,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>163</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34">
@@ -1118,7 +2150,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>164</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35">
@@ -1126,7 +2158,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>165</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36">
@@ -1134,7 +2166,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>166</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37">
@@ -1142,7 +2174,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>167</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
@@ -1150,7 +2182,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>168</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39">
@@ -1158,7 +2190,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>169</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40">
@@ -1166,7 +2198,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>170</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41">
@@ -1174,7 +2206,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42">
@@ -1182,7 +2214,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43">
@@ -1190,7 +2222,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44">
@@ -1198,7 +2230,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>174</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45">
@@ -1206,7 +2238,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46">
@@ -1214,7 +2246,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>176</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47">
@@ -1222,7 +2254,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48">
@@ -1230,7 +2262,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49">
@@ -1238,7 +2270,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>179</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50">
@@ -1246,7 +2278,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>180</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51">
@@ -1254,7 +2286,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>181</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52">
@@ -1262,7 +2294,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>182</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53">
@@ -1270,7 +2302,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>183</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54">
@@ -1278,7 +2310,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>184</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55">
@@ -1286,7 +2318,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>185</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56">
@@ -1294,7 +2326,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>186</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57">
@@ -1302,7 +2334,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58">
@@ -1310,7 +2342,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>188</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59">
@@ -1318,7 +2350,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>189</v>
+        <v>361</v>
       </c>
     </row>
     <row r="60">
@@ -1326,7 +2358,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>190</v>
+        <v>362</v>
       </c>
     </row>
     <row r="61">
@@ -1334,7 +2366,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>191</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62">
@@ -1342,7 +2374,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>192</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63">
@@ -1350,7 +2382,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>193</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64">
@@ -1358,7 +2390,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>194</v>
+        <v>366</v>
       </c>
     </row>
     <row r="65">
@@ -1366,7 +2398,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>195</v>
+        <v>367</v>
       </c>
     </row>
     <row r="66">
@@ -1374,7 +2406,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>196</v>
+        <v>368</v>
       </c>
     </row>
     <row r="67">
@@ -1382,7 +2414,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>197</v>
+        <v>369</v>
       </c>
     </row>
     <row r="68">
@@ -1390,7 +2422,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>198</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69">
@@ -1398,7 +2430,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>199</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70">
@@ -1406,7 +2438,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>200</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71">
@@ -1414,7 +2446,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>201</v>
+        <v>373</v>
       </c>
     </row>
     <row r="72">
@@ -1422,7 +2454,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>202</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73">
@@ -1430,7 +2462,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>203</v>
+        <v>375</v>
       </c>
     </row>
     <row r="74">
@@ -1438,7 +2470,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>204</v>
+        <v>376</v>
       </c>
     </row>
     <row r="75">
@@ -1446,7 +2478,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>205</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76">
@@ -1454,7 +2486,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>206</v>
+        <v>378</v>
       </c>
     </row>
     <row r="77">
@@ -1462,7 +2494,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>207</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78">
@@ -1470,7 +2502,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>208</v>
+        <v>380</v>
       </c>
     </row>
     <row r="79">
@@ -1478,7 +2510,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>209</v>
+        <v>381</v>
       </c>
     </row>
     <row r="80">
@@ -1486,7 +2518,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>210</v>
+        <v>382</v>
       </c>
     </row>
     <row r="81">
@@ -1494,7 +2526,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>211</v>
+        <v>383</v>
       </c>
     </row>
     <row r="82">
@@ -1502,7 +2534,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>212</v>
+        <v>384</v>
       </c>
     </row>
     <row r="83">
@@ -1510,7 +2542,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>213</v>
+        <v>385</v>
       </c>
     </row>
     <row r="84">
@@ -1518,7 +2550,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>214</v>
+        <v>386</v>
       </c>
     </row>
     <row r="85">
@@ -1526,7 +2558,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>215</v>
+        <v>387</v>
       </c>
     </row>
     <row r="86">
@@ -1534,7 +2566,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>216</v>
+        <v>388</v>
       </c>
     </row>
     <row r="87">
@@ -1542,7 +2574,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>217</v>
+        <v>389</v>
       </c>
     </row>
     <row r="88">
@@ -1550,7 +2582,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>218</v>
+        <v>390</v>
       </c>
     </row>
     <row r="89">
@@ -1558,7 +2590,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>219</v>
+        <v>391</v>
       </c>
     </row>
     <row r="90">
@@ -1566,7 +2598,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>220</v>
+        <v>392</v>
       </c>
     </row>
     <row r="91">
@@ -1574,7 +2606,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>221</v>
+        <v>393</v>
       </c>
     </row>
     <row r="92">
@@ -1582,7 +2614,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>222</v>
+        <v>394</v>
       </c>
     </row>
     <row r="93">
@@ -1590,7 +2622,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>223</v>
+        <v>395</v>
       </c>
     </row>
     <row r="94">
@@ -1598,7 +2630,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>224</v>
+        <v>396</v>
       </c>
     </row>
     <row r="95">
@@ -1606,7 +2638,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>225</v>
+        <v>397</v>
       </c>
     </row>
     <row r="96">
@@ -1614,7 +2646,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>226</v>
+        <v>398</v>
       </c>
     </row>
     <row r="97">
@@ -1622,7 +2654,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>227</v>
+        <v>399</v>
       </c>
     </row>
     <row r="98">
@@ -1630,7 +2662,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>228</v>
+        <v>400</v>
       </c>
     </row>
     <row r="99">
@@ -1638,7 +2670,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>229</v>
+        <v>401</v>
       </c>
     </row>
     <row r="100">
@@ -1646,7 +2678,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>230</v>
+        <v>402</v>
       </c>
     </row>
     <row r="101">
@@ -1654,7 +2686,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>231</v>
+        <v>403</v>
       </c>
     </row>
     <row r="102">
@@ -1662,7 +2694,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>232</v>
+        <v>404</v>
       </c>
     </row>
     <row r="103">
@@ -1670,7 +2702,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>233</v>
+        <v>405</v>
       </c>
     </row>
     <row r="104">
@@ -1678,7 +2710,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>234</v>
+        <v>406</v>
       </c>
     </row>
     <row r="105">
@@ -1686,7 +2718,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>235</v>
+        <v>407</v>
       </c>
     </row>
     <row r="106">
@@ -1694,7 +2726,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>236</v>
+        <v>408</v>
       </c>
     </row>
     <row r="107">
@@ -1702,7 +2734,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>237</v>
+        <v>409</v>
       </c>
     </row>
     <row r="108">
@@ -1710,7 +2742,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>238</v>
+        <v>410</v>
       </c>
     </row>
     <row r="109">
@@ -1718,7 +2750,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>239</v>
+        <v>411</v>
       </c>
     </row>
     <row r="110">
@@ -1726,7 +2758,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>240</v>
+        <v>412</v>
       </c>
     </row>
     <row r="111">
@@ -1734,7 +2766,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>241</v>
+        <v>413</v>
       </c>
     </row>
     <row r="112">
@@ -1742,7 +2774,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>242</v>
+        <v>414</v>
       </c>
     </row>
     <row r="113">
@@ -1750,7 +2782,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>243</v>
+        <v>415</v>
       </c>
     </row>
     <row r="114">
@@ -1758,7 +2790,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>244</v>
+        <v>416</v>
       </c>
     </row>
     <row r="115">
@@ -1766,7 +2798,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>245</v>
+        <v>417</v>
       </c>
     </row>
     <row r="116">
@@ -1774,7 +2806,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>246</v>
+        <v>418</v>
       </c>
     </row>
     <row r="117">
@@ -1782,7 +2814,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>247</v>
+        <v>419</v>
       </c>
     </row>
     <row r="118">
@@ -1790,7 +2822,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>248</v>
+        <v>420</v>
       </c>
     </row>
     <row r="119">
@@ -1798,7 +2830,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>249</v>
+        <v>421</v>
       </c>
     </row>
     <row r="120">
@@ -1806,7 +2838,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>250</v>
+        <v>422</v>
       </c>
     </row>
     <row r="121">
@@ -1814,7 +2846,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>251</v>
+        <v>423</v>
       </c>
     </row>
     <row r="122">
@@ -1822,7 +2854,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>252</v>
+        <v>424</v>
       </c>
     </row>
     <row r="123">
@@ -1830,7 +2862,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>253</v>
+        <v>425</v>
       </c>
     </row>
     <row r="124">
@@ -1838,7 +2870,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>254</v>
+        <v>426</v>
       </c>
     </row>
     <row r="125">
@@ -1846,7 +2878,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>255</v>
+        <v>427</v>
       </c>
     </row>
     <row r="126">
@@ -1854,7 +2886,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>256</v>
+        <v>428</v>
       </c>
     </row>
     <row r="127">
@@ -1862,7 +2894,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>257</v>
+        <v>429</v>
       </c>
     </row>
     <row r="128">
@@ -1870,7 +2902,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>258</v>
+        <v>430</v>
       </c>
     </row>
     <row r="129">
@@ -1878,7 +2910,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>259</v>
+        <v>431</v>
       </c>
     </row>
     <row r="130">
@@ -1886,7 +2918,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>260</v>
+        <v>432</v>
       </c>
     </row>
     <row r="131">
@@ -1894,7 +2926,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>261</v>
+        <v>433</v>
       </c>
     </row>
     <row r="132">
@@ -1902,7 +2934,1383 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
         <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>606</v>
       </c>
     </row>
   </sheetData>
